--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2527482.516006635</v>
+        <v>-2530177.313282483</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>142.8540293346726</v>
       </c>
       <c r="D2" t="n">
-        <v>120.0649097905551</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.5959893564041</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>172.0649365860238</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>90.11116190171501</v>
+        <v>90.11116190171472</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>169.6611277225536</v>
+        <v>358.5679368686372</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>168.6913514727816</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>217.8512913704097</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>97.32228826427088</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>35.00179869008806</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>174.0675174389536</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.10799870228436</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>43.73846614325492</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>58.24570521548602</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>191.3928535690715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>47.4973478028577</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652558</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652687</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.425007896998</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652571</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541836</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541836</v>
+        <v>116.0100653541835</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652576</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1713.412786206038</v>
+        <v>1339.947027944958</v>
       </c>
       <c r="C2" t="n">
-        <v>1344.450269265626</v>
+        <v>1195.650028617006</v>
       </c>
       <c r="D2" t="n">
-        <v>1223.1725826085</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E2" t="n">
         <v>837.3843300102556</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4370,10 +4370,10 @@
         <v>2100.01262627016</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.01262627016</v>
+        <v>1726.54686800908</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.01262627016</v>
+        <v>1726.54686800908</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>914.9941495444126</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>746.0579666165057</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>595.94132720417</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>448.0282336217768</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>301.1382861238665</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>301.1382861238665</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1462.643153825989</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1239.664673020724</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1239.664673020724</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1148.643297362426</v>
+        <v>1545.4247444162</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>1545.4247444162</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>1317.435193518182</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>1096.642614374652</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.021456295685</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C5" t="n">
-        <v>926.0589393552737</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847235</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.621296359807</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.621296359807</v>
+        <v>1182.87310169792</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1269.422067716397</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1269.422067716397</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1014.73757951051</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W7" t="n">
-        <v>1014.73757951051</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="X7" t="n">
-        <v>1014.73757951051</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>770.0080784229704</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3227.300479928088</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3021.322732312311</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2767.792255586147</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2436.729368242576</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2083.960712972462</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1710.494954711382</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>980.7518458718754</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>811.8156629439685</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>661.6990235316327</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>513.7859299492396</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>366.8959824513292</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>199.1931458260482</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1383.192889845645</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>1162.400310702115</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>986.1256051221279</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C13" t="n">
-        <v>817.189422194221</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>667.0727827818853</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>519.1596891994922</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>372.2697417015818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.774069952368</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311364</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2003.736430771334</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1714.661204115532</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1459.976715909645</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1170.559545872684</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>942.5699949746665</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>721.7774158311364</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>996.5276398439761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>827.5914569160692</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,16 +6655,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7129,16 +7129,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,16 +7193,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
@@ -7318,16 +7318,16 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7546,7 +7546,7 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="M3" t="n">
-        <v>168.7434581780642</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.9556134883061418</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222.418862436335</v>
       </c>
       <c r="D2" t="n">
-        <v>234.6181318301278</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.026481422113</v>
+        <v>162.0264814221133</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>26.01259675821674</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>101.1181252153547</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -26317,16 +26317,16 @@
         <v>20526.0442466071</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
+        <v>20178.66499225014</v>
+      </c>
+      <c r="G2" t="n">
         <v>20178.66499225015</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
@@ -26335,7 +26335,7 @@
         <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
@@ -26344,16 +26344,16 @@
         <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363163</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810793</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675651</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.20035675661</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="I4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985009</v>
       </c>
       <c r="J4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="L4" t="n">
         <v>17328.05961985006</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>17328.05961985009</v>
+      </c>
+      <c r="N4" t="n">
         <v>17328.05961985006</v>
       </c>
-      <c r="L4" t="n">
-        <v>17328.05961985005</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17328.05961985005</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985012</v>
-      </c>
       <c r="O4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="P4" t="n">
         <v>17328.05961985006</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1222530.624509685</v>
+        <v>-1222994.921301709</v>
       </c>
       <c r="C6" t="n">
         <v>-209138.0018853401</v>
@@ -26528,40 +26528,40 @@
         <v>-368559.2718832318</v>
       </c>
       <c r="E6" t="n">
-        <v>-415693.526995769</v>
+        <v>-415728.2649212044</v>
       </c>
       <c r="F6" t="n">
-        <v>-90281.06518841344</v>
+        <v>-90315.80311384927</v>
       </c>
       <c r="G6" t="n">
-        <v>-90281.06518841354</v>
+        <v>-90315.80311384925</v>
       </c>
       <c r="H6" t="n">
-        <v>-90281.06518841354</v>
+        <v>-90315.80311384927</v>
       </c>
       <c r="I6" t="n">
-        <v>-119393.8492207901</v>
+        <v>-119393.8492207902</v>
       </c>
       <c r="J6" t="n">
-        <v>-267571.3090371409</v>
+        <v>-267571.309037141</v>
       </c>
       <c r="K6" t="n">
-        <v>-99966.13122715836</v>
+        <v>-99966.13122715837</v>
       </c>
       <c r="L6" t="n">
         <v>-148260.1012353491</v>
       </c>
       <c r="M6" t="n">
-        <v>-185021.1591626703</v>
+        <v>-185021.1591626701</v>
       </c>
       <c r="N6" t="n">
-        <v>-119393.84922079</v>
+        <v>-119393.8492207901</v>
       </c>
       <c r="O6" t="n">
+        <v>-99966.13122715836</v>
+      </c>
+      <c r="P6" t="n">
         <v>-99966.13122715837</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-99966.13122715836</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26793,10 +26793,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>4.655519798724697</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>22.59752377571363</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>200.0699729559155</v>
+        <v>11.16316380983181</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>52.05734452443033</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>68.67170696618135</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.86547352390495</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>109.7532162242327</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>112.4554808976374</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>338.1920576279218</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>576.057346513631</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>538.1269048795939</v>
       </c>
       <c r="M3" t="n">
-        <v>535.6747904601048</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>367.8869457703467</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35030,13 +35030,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>196.0580237059035</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>433.4611020691866</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
